--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="3100" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="6"/>
+    <workbookView xWindow="1400" yWindow="2000" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>type</t>
   </si>
@@ -73,6 +73,9 @@
     <t>data_value</t>
   </si>
   <si>
+    <t>select_one</t>
+  </si>
+  <si>
     <t>survey</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>end if</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -250,28 +250,25 @@
     <t>uuid</t>
   </si>
   <si>
-    <t>select_one_with_other</t>
-  </si>
-  <si>
     <t>conditional for other selection above so new person node may be created, making sure live_in_household is false</t>
   </si>
   <si>
-    <t>testing if other has been selected for new member page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>you entered someone not on the roster.</t>
-  </si>
-  <si>
-    <t>data('person_1').startsWith("uuid:")</t>
-  </si>
-  <si>
-    <t>!data('person_1').startsWith('uuid:') | !data('person_2').startsWith('uuid:')</t>
-  </si>
-  <si>
     <t>Input first names of both people: separate their names with = if they are married, or != if they are not married but have offspring</t>
+  </si>
+  <si>
+    <t>linked_household_member</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id'), lives_in_household : 'no' }</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Please enter info on person not living in household to the best of your ability</t>
+  </si>
+  <si>
+    <t>If the person is not on the list, please add them to the roster</t>
   </si>
 </sst>
 </file>
@@ -341,6 +338,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,7 +430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,7 +519,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,7 +595,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -609,6 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -624,19 +640,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,11 +660,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -720,6 +736,15 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -791,6 +816,15 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1144,29 +1178,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +1235,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -1282,175 +1316,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>28</v>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
+      <c r="C5" s="21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
+      <c r="C8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
+      <c r="C9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="5:8" ht="12.75" customHeight="1">
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="5:8" ht="12.75" customHeight="1">
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="5:8" ht="12.75" customHeight="1">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="5:8" ht="12.75" customHeight="1">
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
@@ -1515,7 +1549,7 @@
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -1523,7 +1557,7 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1559,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1574,7 +1608,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1611,8 +1645,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -1630,25 +1664,25 @@
       <c r="C21" s="7"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="26"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,10 +1711,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1699,46 +1733,47 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>46</v>
@@ -1747,7 +1782,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1760,7 +1795,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1773,7 +1808,7 @@
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1786,7 +1821,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>62</v>
@@ -1799,90 +1834,163 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24">
+      <c r="D10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="A12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60">
-      <c r="A9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="24">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="48">
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="24">
-      <c r="D25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1900,7 +2008,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1915,42 +2023,42 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1">
-      <c r="A1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1">
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -1962,57 +2070,79 @@
       <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="24">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2000" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="4"/>
+    <workbookView xWindow="1400" yWindow="2000" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1735,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="2000" windowWidth="29980" windowHeight="16040" tabRatio="745" activeTab="6"/>
+    <workbookView xWindow="1300" yWindow="220" windowWidth="30660" windowHeight="19040" tabRatio="745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="marriages" sheetId="8" r:id="rId7"/>
     <sheet name="queries" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -121,21 +122,12 @@
     <t>marital_choices</t>
   </si>
   <si>
-    <t>married</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
-    <t>divorced</t>
-  </si>
-  <si>
     <t>Divorced</t>
   </si>
   <si>
-    <t>widowed</t>
-  </si>
-  <si>
     <t>Widowed</t>
   </si>
   <si>
@@ -148,12 +140,6 @@
     <t>end screen</t>
   </si>
   <si>
-    <t>never_married</t>
-  </si>
-  <si>
-    <t>separated</t>
-  </si>
-  <si>
     <t>Never Married</t>
   </si>
   <si>
@@ -250,12 +236,6 @@
     <t>uuid</t>
   </si>
   <si>
-    <t>conditional for other selection above so new person node may be created, making sure live_in_household is false</t>
-  </si>
-  <si>
-    <t>Input first names of both people: separate their names with = if they are married, or != if they are not married but have offspring</t>
-  </si>
-  <si>
     <t>linked_household_member</t>
   </si>
   <si>
@@ -269,6 +249,42 @@
   </si>
   <si>
     <t>If the person is not on the list, please add them to the roster</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>What is their current marital status?</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>mstat</t>
+  </si>
+  <si>
+    <t>temp fix_ spending too long</t>
+  </si>
+  <si>
+    <t>data('person_1_name') + "_" + data('mstat') + "_" + data('person_2_name')</t>
+  </si>
+  <si>
+    <t>temp_need to automate person_name fields</t>
+  </si>
+  <si>
+    <t>Type first names separated by M, NM, S, D, W:</t>
   </si>
 </sst>
 </file>
@@ -311,7 +327,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -430,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -594,8 +616,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -663,8 +709,14 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -745,6 +797,18 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -825,6 +889,18 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
@@ -1218,7 +1294,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1230,18 +1306,18 @@
     <col min="6" max="6" width="41.83203125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -1262,25 +1338,19 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1"/>
-    <row r="4" spans="1:10" ht="37" customHeight="1">
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="37" customHeight="1">
       <c r="D5" s="11"/>
@@ -1304,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1358,10 +1428,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
@@ -1369,10 +1439,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -1380,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
@@ -1395,10 +1465,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1410,10 +1480,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -1502,7 +1572,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1528,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
@@ -1544,7 +1614,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
@@ -1552,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
@@ -1561,16 +1631,16 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
@@ -1591,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1608,7 +1678,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1622,67 +1692,81 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="23"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="27"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="29"/>
+      <c r="B27" s="23"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="29"/>
+      <c r="B29" s="27"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,7 +1784,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1733,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1745,17 +1829,18 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -1776,13 +1861,13 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1800,7 +1885,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="52" customHeight="1">
@@ -1812,8 +1897,8 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" t="s">
-        <v>71</v>
+      <c r="G4" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1824,13 +1909,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1846,56 +1931,64 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24">
-      <c r="D10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="23" t="s">
-        <v>74</v>
-      </c>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -1910,87 +2003,62 @@
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="24">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
-        <v>80</v>
+      <c r="G14" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="24">
+    <row r="15" spans="1:10">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2008,7 +2076,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2028,28 +2096,28 @@
         <v>24</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2062,13 +2130,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>9</v>
@@ -2077,16 +2145,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2097,10 +2165,10 @@
     </row>
     <row r="5" spans="1:9" ht="24">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -2109,16 +2177,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1">
@@ -2153,4 +2221,40 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="39" customHeight="1">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="220" windowWidth="30660" windowHeight="19040" tabRatio="745" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="745" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="marriages" sheetId="8" r:id="rId7"/>
     <sheet name="queries" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId9"/>
+    <sheet name="prompt_types" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -35,263 +35,314 @@
     <t>name</t>
   </si>
   <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>household_member</t>
+  </si>
+  <si>
+    <t>household_id</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>marital_choices</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>Never Married</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>marriage_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>person_1</t>
+  </si>
+  <si>
+    <t>person_2</t>
+  </si>
+  <si>
+    <t>marriages</t>
+  </si>
+  <si>
+    <t>Marriages</t>
+  </si>
+  <si>
+    <t>creates roster</t>
+  </si>
+  <si>
+    <t>roster</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_id = ? </t>
+  </si>
+  <si>
+    <t>[ data('household_id') ]</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id') }</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Marriage Information:</t>
+  </si>
+  <si>
+    <t>Person 1</t>
+  </si>
+  <si>
+    <t>Person 2</t>
+  </si>
+  <si>
+    <t>something here.. Select the two people in a relationship, something limiting the extent, maybe only those relationships that bore offspring?</t>
+  </si>
+  <si>
+    <t>do section marriages</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>linked_household_member</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id'), lives_in_household : 'no' }</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Please enter info on person not living in household to the best of your ability</t>
+  </si>
+  <si>
+    <t>If the person is not on the list, please add them to the roster</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>What is their current marital status?</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>mstat</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>async_assign_count</t>
+  </si>
+  <si>
+    <t>async get names</t>
+  </si>
+  <si>
+    <t>_id = ?</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>isSessionVariable</t>
+  </si>
+  <si>
+    <t>person_1_name_query</t>
+  </si>
+  <si>
+    <t>person_2_name_query</t>
+  </si>
+  <si>
+    <t>async tmp var for names</t>
+  </si>
+  <si>
+    <t>person_1_name</t>
+  </si>
+  <si>
+    <t>person_2_name</t>
+  </si>
+  <si>
+    <t>data('person_1_name') + '_' + data('mstat') + '_' + data('person_2_name')</t>
+  </si>
+  <si>
+    <t>display.debug</t>
+  </si>
+  <si>
+    <t>[ data('person_1') ]</t>
+  </si>
+  <si>
+    <t>[ data('person_2') ]</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>async_assign_num_value</t>
+  </si>
+  <si>
+    <t>async_assign_text_value</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>yesno</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>form_version</t>
-  </si>
-  <si>
-    <t>household_member</t>
-  </si>
-  <si>
-    <t>household_id</t>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <t>choice_list_name</t>
-  </si>
-  <si>
-    <t>data_value</t>
-  </si>
-  <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
-  </si>
-  <si>
-    <t>display.prompt.text</t>
-  </si>
-  <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
-    <t>marital_choices</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>Widowed</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>Never Married</t>
-  </si>
-  <si>
-    <t>Separated</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>require</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>marriage_id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>person_1</t>
-  </si>
-  <si>
-    <t>person_2</t>
-  </si>
-  <si>
-    <t>marriages</t>
-  </si>
-  <si>
-    <t>Marriages</t>
-  </si>
-  <si>
-    <t>creates roster</t>
-  </si>
-  <si>
-    <t>roster</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_id = ? </t>
-  </si>
-  <si>
-    <t>[ data('household_id') ]</t>
-  </si>
-  <si>
-    <t>{ household_id : data('household_id') }</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>Marriage Information:</t>
-  </si>
-  <si>
-    <t>Person 1</t>
-  </si>
-  <si>
-    <t>Person 2</t>
-  </si>
-  <si>
-    <t>something here.. Select the two people in a relationship, something limiting the extent, maybe only those relationships that bore offspring?</t>
-  </si>
-  <si>
-    <t>do section marriages</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>linked_household_member</t>
-  </si>
-  <si>
-    <t>{ household_id : data('household_id'), lives_in_household : 'no' }</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Please enter info on person not living in household to the best of your ability</t>
-  </si>
-  <si>
-    <t>If the person is not on the list, please add them to the roster</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>What is their current marital status?</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>mstat</t>
-  </si>
-  <si>
-    <t>temp fix_ spending too long</t>
-  </si>
-  <si>
-    <t>data('person_1_name') + "_" + data('mstat') + "_" + data('person_2_name')</t>
-  </si>
-  <si>
-    <t>temp_need to automate person_name fields</t>
-  </si>
-  <si>
-    <t>Type first names separated by M, NM, S, D, W:</t>
+    <t>short marital status</t>
+  </si>
+  <si>
+    <t>This screen is intentionally left almost blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,8 +377,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -640,8 +719,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -715,8 +833,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="211" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="211" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="211" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="226">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -809,6 +938,25 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -901,8 +1049,28 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 4" xfId="211"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1254,29 +1422,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" ht="24">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1293,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1311,40 +1479,40 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1374,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1387,35 +1555,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.25" customHeight="1">
       <c r="A1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.25" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
@@ -1425,35 +1593,35 @@
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
       <c r="A5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
@@ -1462,13 +1630,13 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1477,13 +1645,13 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -1572,7 +1740,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1584,26 +1752,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1611,36 +1779,36 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
@@ -1661,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1676,9 +1844,9 @@
     <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1686,62 +1854,94 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="7"/>
@@ -1795,10 +1995,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1817,57 +2017,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" customHeight="1">
+    <row r="1" spans="1:11" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1875,190 +2079,221 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="52" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="23" t="s">
-        <v>82</v>
-      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
-        <v>2</v>
-      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" ht="24">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="23"/>
+        <v>71</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="24">
+    <row r="14" spans="1:11">
       <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="24">
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2073,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2091,36 +2326,39 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1">
+    <row r="1" spans="1:10" s="26" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -2128,86 +2366,132 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:10">
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="24">
+    <row r="5" spans="1:10" ht="24">
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="I5" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="16" customFormat="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1">
+      <c r="A7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1">
+      <c r="A8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="I9" s="27"/>
@@ -2225,27 +2509,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>80</v>
-      </c>
+    <row r="1" spans="1:6" ht="39" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="14">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="14">
+      <c r="A3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14">
+      <c r="A4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14">
+      <c r="A5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="745" activeTab="6"/>
+    <workbookView xWindow="1300" yWindow="220" windowWidth="30660" windowHeight="19040" tabRatio="745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="marriages" sheetId="8" r:id="rId7"/>
     <sheet name="queries" sheetId="12" r:id="rId8"/>
-    <sheet name="prompt_types" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -35,6 +35,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>yesno</t>
   </si>
   <si>
@@ -272,77 +275,23 @@
     <t>mstat</t>
   </si>
   <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>async_assign_count</t>
-  </si>
-  <si>
-    <t>async get names</t>
-  </si>
-  <si>
-    <t>_id = ?</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>isSessionVariable</t>
-  </si>
-  <si>
-    <t>person_1_name_query</t>
-  </si>
-  <si>
-    <t>person_2_name_query</t>
-  </si>
-  <si>
-    <t>async tmp var for names</t>
-  </si>
-  <si>
-    <t>person_1_name</t>
-  </si>
-  <si>
-    <t>person_2_name</t>
-  </si>
-  <si>
-    <t>data('person_1_name') + '_' + data('mstat') + '_' + data('person_2_name')</t>
-  </si>
-  <si>
-    <t>display.debug</t>
-  </si>
-  <si>
-    <t>[ data('person_1') ]</t>
-  </si>
-  <si>
-    <t>[ data('person_2') ]</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>async_assign_num_value</t>
-  </si>
-  <si>
-    <t>async_assign_text_value</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>short marital status</t>
-  </si>
-  <si>
-    <t>This screen is intentionally left almost blank</t>
+    <t>temp fix_ spending too long</t>
+  </si>
+  <si>
+    <t>data('person_1_name') + "_" + data('mstat') + "_" + data('person_2_name')</t>
+  </si>
+  <si>
+    <t>temp_need to automate person_name fields</t>
+  </si>
+  <si>
+    <t>Type first names separated by M, NM, S, D, W:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,30 +326,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +372,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="226">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -719,47 +640,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -833,19 +715,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="211" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="211" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="211" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="226">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -938,25 +809,6 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1049,28 +901,8 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 4" xfId="211"/>
     <cellStyle name="Note" xfId="88" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1407,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1422,29 +1254,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1479,40 +1311,40 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1542,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1555,35 +1387,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.25" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.25" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.25" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.25" customHeight="1">
@@ -1593,35 +1425,35 @@
     </row>
     <row r="5" spans="1:8" ht="22.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
@@ -1630,13 +1462,13 @@
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1645,13 +1477,13 @@
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -1740,7 +1572,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1752,26 +1584,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1779,36 +1611,36 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
@@ -1829,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1844,9 +1676,9 @@
     <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1854,94 +1686,62 @@
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="7"/>
@@ -1995,10 +1795,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2017,61 +1817,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1">
+    <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2079,221 +1875,190 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="52" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="11" t="s">
-        <v>67</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
-        <v>67</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="23"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:11" ht="24">
+    <row r="13" spans="1:10">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>68</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="32" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10" ht="24">
       <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="24">
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2308,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2326,39 +2091,36 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="26" customFormat="1">
+    <row r="1" spans="1:9" s="26" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -2366,132 +2128,86 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:10" ht="24">
+    <row r="5" spans="1:9" ht="24">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>69</v>
-      </c>
       <c r="I5" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="16" customFormat="1">
-      <c r="A7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="16" customFormat="1">
-      <c r="A8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="I9" s="27"/>
@@ -2509,55 +2225,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11"/>
+    <row r="1" spans="1:9" ht="39" customHeight="1">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="14">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="14">
-      <c r="A3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14">
-      <c r="A4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14">
-      <c r="A5" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="F1" s="11" t="s">
         <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -531,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="226">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -744,6 +744,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -845,7 +847,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="226">
+  <cellStyles count="228">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -957,6 +959,7 @@
     <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1068,6 +1071,7 @@
     <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Normal 4" xfId="211"/>
@@ -2019,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2248,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2268,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">

--- a/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="745" activeTab="6"/>
+    <workbookView xWindow="2060" yWindow="1380" windowWidth="28800" windowHeight="17460" tabRatio="745" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>Person 2</t>
   </si>
   <si>
-    <t>something here.. Select the two people in a relationship, something limiting the extent, maybe only those relationships that bore offspring?</t>
-  </si>
-  <si>
     <t>do section marriages</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Please enter info on person not living in household to the best of your ability</t>
   </si>
   <si>
-    <t>If the person is not on the list, please add them to the roster</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -336,6 +330,13 @@
   </si>
   <si>
     <t>This screen is intentionally left almost blank</t>
+  </si>
+  <si>
+    <t>Add as many entries as needed to cover all relationships resulting in offspring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If any relationship with someone outside of the current household has resulted in offspring, add the other person to the roster.
+</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1517,7 @@
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1600,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>30</v>
@@ -1611,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>36</v>
@@ -1622,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>31</v>
@@ -1637,7 +1638,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>37</v>
@@ -1652,7 +1653,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>32</v>
@@ -1859,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
@@ -1867,12 +1868,12 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>14</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>51</v>
@@ -1898,7 +1899,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -1915,18 +1916,18 @@
         <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1934,10 +1935,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2024,7 +2025,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2069,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2106,12 +2107,12 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="31" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2130,7 +2131,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2154,7 +2155,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2165,10 +2166,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2186,7 +2187,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="48">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2196,7 +2197,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="32" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -2209,11 +2210,11 @@
         <v>57</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2240,19 +2241,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="D17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2260,19 +2261,19 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2280,7 +2281,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2290,13 +2291,13 @@
     </row>
     <row r="21" spans="1:11" ht="24">
       <c r="D21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2360,7 @@
         <v>48</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2407,7 +2408,7 @@
     </row>
     <row r="5" spans="1:10" ht="24">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -2419,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>61</v>
@@ -2433,10 +2434,10 @@
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1">
       <c r="A7" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>57</v>
@@ -2448,10 +2449,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>61</v>
@@ -2460,15 +2461,15 @@
         <v>61</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="16" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>57</v>
@@ -2480,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>61</v>
@@ -2492,7 +2493,7 @@
         <v>61</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2527,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>0</v>
@@ -2542,23 +2543,23 @@
     </row>
     <row r="3" spans="1:6" ht="14">
       <c r="A3" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14">
       <c r="A4" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14">
       <c r="A5" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>50</v>
